--- a/biology/Botanique/Bénédictin_(pomme)/Bénédictin_(pomme).xlsx
+++ b/biology/Botanique/Bénédictin_(pomme)/Bénédictin_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dictin_(pomme)</t>
+          <t>Bénédictin_(pomme)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bénédictin est un cultivar de pommier domestique. Cette pomme est aussi appelée Reinette Normande, Œil de Nèfle et Bénédictin de Jumièges[1]. C'est un fruit de table et à cuire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bénédictin est un cultivar de pommier domestique. Cette pomme est aussi appelée Reinette Normande, Œil de Nèfle et Bénédictin de Jumièges. C'est un fruit de table et à cuire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dictin_(pomme)</t>
+          <t>Bénédictin_(pomme)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Usage : à couteau et pomme à cuire, tarte tatin par exemple
 Calibre : gros (&gt; 200 grammes)
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dictin_(pomme)</t>
+          <t>Bénédictin_(pomme)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une variété ancienne normande. Elle fut nommée « Bénédictin » en hommage aux moines de l'abbaye de Jumièges[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une variété ancienne normande. Elle fut nommée « Bénédictin » en hommage aux moines de l'abbaye de Jumièges.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dictin_(pomme)</t>
+          <t>Bénédictin_(pomme)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Descendants :
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dictin_(pomme)</t>
+          <t>Bénédictin_(pomme)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Groupe de floraison :
 S-génotype :
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dictin_(pomme)</t>
+          <t>Bénédictin_(pomme)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tavelure :
 Mildiou :
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dictin_(pomme)</t>
+          <t>Bénédictin_(pomme)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +694,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Vigueur du cultivar :
 Cueillette : octobre
